--- a/settings.xlsx
+++ b/settings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29895" yWindow="1335" windowWidth="20100" windowHeight="12780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="게임목록" sheetId="1" state="visible" r:id="rId1"/>
@@ -472,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>D:\Nexon\EA SPORTS(TM) FIFA ONLINE 4</t>
+          <t>D:/Nexon/EA SPORTS(TM) FIFA ONLINE 4/data</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>D:\Nexon\DNF</t>
+          <t>D:/Nexon/DNF/ImagePacks2</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/21</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>D:\Nexon\DragonNest</t>
+          <t>D:/Nexon/DragonNest/TempRes</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/07</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>D:\Nexon\LostSaga</t>
+          <t>D:/Nexon/LostSaga</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>D:\Nexon\Mabinogi</t>
+          <t>D:/Nexon/Mabinogi/system</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>D:\Nexon\Heroes</t>
+          <t>D:/Nexon/Heroes/ko-KR/bin</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -608,57 +608,53 @@
     <row r="9" ht="16.5" customHeight="1" s="4">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>마비노기영웅전_TEST</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="11" t="n"/>
+          <t>메이플스토리</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>D:/Nexon/Maple</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>2019/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" s="4">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>메이플스토리</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Maple</t>
-        </is>
-      </c>
+          <t>메이플스토리2</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n"/>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/21</t>
         </is>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" s="4">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>메이플스토리2</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\MapleStory2</t>
-        </is>
-      </c>
+          <t>바람의나라</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n"/>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>2019/11/21</t>
+          <t>2019/11/26</t>
         </is>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" s="4">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>바람의나라</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Kingdom of the Winds</t>
-        </is>
-      </c>
+          <t>버블파이터</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n"/>
       <c r="D12" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -668,14 +664,10 @@
     <row r="13" ht="16.5" customHeight="1" s="4">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>버블파이터</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\BubbleFighter</t>
-        </is>
-      </c>
+          <t>사이퍼즈</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n"/>
       <c r="D13" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -685,14 +677,10 @@
     <row r="14" ht="16.5" customHeight="1" s="4">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>사이퍼즈</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Cyphers</t>
-        </is>
-      </c>
+          <t>서든어택</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n"/>
       <c r="D14" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -702,14 +690,10 @@
     <row r="15" ht="16.5" customHeight="1" s="4">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>서든어택</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\SuddenAttack</t>
-        </is>
-      </c>
+          <t>아스가르드</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n"/>
       <c r="D15" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -719,14 +703,10 @@
     <row r="16" ht="16.5" customHeight="1" s="4">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>아스가르드</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Asgard</t>
-        </is>
-      </c>
+          <t>아스텔리아</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n"/>
       <c r="D16" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -736,48 +716,36 @@
     <row r="17" ht="16.5" customHeight="1" s="4">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>아스텔리아</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Astellia</t>
-        </is>
-      </c>
+          <t>아키에이지</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n"/>
       <c r="D17" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/22</t>
         </is>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" s="4">
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>아키에이지</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\ArcheAge</t>
-        </is>
-      </c>
+          <t>어둠의전설</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n"/>
       <c r="D18" s="11" t="inlineStr">
         <is>
-          <t>2019/11/22</t>
+          <t>2019/11/26</t>
         </is>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1" s="4">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>어둠의전설</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Legend of Darkness</t>
-        </is>
-      </c>
+          <t>엘소드</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n"/>
       <c r="D19" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -787,48 +755,36 @@
     <row r="20" ht="16.5" customHeight="1" s="4">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>엘소드</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\ElSword\data</t>
-        </is>
-      </c>
+          <t>이카루스</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n"/>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/14</t>
         </is>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" s="4">
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>이카루스</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\ICARUS</t>
-        </is>
-      </c>
+          <t>일랜시아</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n"/>
       <c r="D21" s="11" t="inlineStr">
         <is>
-          <t>2019/11/14</t>
+          <t>2019/11/26</t>
         </is>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="4">
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>일랜시아</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Elancia</t>
-        </is>
-      </c>
+          <t>천애명월도</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n"/>
       <c r="D22" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -838,48 +794,36 @@
     <row r="23" ht="16.5" customHeight="1" s="4">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>천애명월도</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Sky</t>
-        </is>
-      </c>
+          <t>카운터스트라이크온라인</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n"/>
       <c r="D23" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/10/23</t>
         </is>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="4">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>카운터스트라이크온라인</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Counter-Strike Online</t>
-        </is>
-      </c>
+          <t>카트라이더</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n"/>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>2019/10/23</t>
+          <t>2019/11/26</t>
         </is>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1" s="4">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>카트라이더</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\KartRider</t>
-        </is>
-      </c>
+          <t>크레이지아케이드</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n"/>
       <c r="D25" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -889,14 +833,10 @@
     <row r="26" ht="16.5" customHeight="1" s="4">
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>크레이지아케이드</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Crazy Arcade</t>
-        </is>
-      </c>
+          <t>클로저스</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n"/>
       <c r="D26" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -906,14 +846,10 @@
     <row r="27" ht="16.5" customHeight="1" s="4">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>클로저스</t>
-        </is>
-      </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\Closers</t>
-        </is>
-      </c>
+          <t>테라</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n"/>
       <c r="D27" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -923,14 +859,10 @@
     <row r="28" ht="16.5" customHeight="1" s="4">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>테라</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>D:/Nexon/Tera</t>
-        </is>
-      </c>
+          <t>테일즈런너</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="n"/>
       <c r="D28" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
@@ -940,48 +872,36 @@
     <row r="29" ht="16.5" customHeight="1" s="4">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>테일즈런너</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\TalesRunner</t>
-        </is>
-      </c>
+          <t>테일즈위버</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n"/>
       <c r="D29" s="11" t="inlineStr">
         <is>
-          <t>2019/11/26</t>
+          <t>2019/11/27</t>
         </is>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="4">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>테일즈위버</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\TalesWeaver</t>
-        </is>
-      </c>
+          <t>트리오브세이비어</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="n"/>
       <c r="D30" s="11" t="inlineStr">
         <is>
-          <t>2019/11/27</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" s="4">
+          <t>2019/10/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>트리오브세이비어</t>
-        </is>
-      </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\TreeOfSavior</t>
-        </is>
-      </c>
+          <t>파이널판타지14</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="n"/>
       <c r="D31" s="11" t="inlineStr">
         <is>
           <t>2019/10/24</t>
@@ -991,32 +911,11 @@
     <row r="32">
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>파이널판타지14</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\FINAL FANTASY XIV - KOREA</t>
-        </is>
-      </c>
+          <t>프리스타일2</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="n"/>
       <c r="D32" s="11" t="inlineStr">
-        <is>
-          <t>2019/10/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>프리스타일2</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>D:\Nexon\FS2</t>
-        </is>
-      </c>
-      <c r="D33" s="11" t="inlineStr">
         <is>
           <t>2019/11/26</t>
         </is>
@@ -1024,126 +923,336 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId61"/>
-    <hyperlink ref="C3" r:id="rId62"/>
-    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId63"/>
-    <hyperlink ref="C4" r:id="rId64"/>
-    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId65"/>
-    <hyperlink ref="C5" r:id="rId66"/>
-    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId67"/>
-    <hyperlink ref="C6" r:id="rId68"/>
-    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId69"/>
-    <hyperlink ref="C7" r:id="rId70"/>
-    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId71"/>
-    <hyperlink ref="C8" r:id="rId72"/>
-    <hyperlink ref="B9" display="http://heroes.nexon.com/" r:id="rId73"/>
-    <hyperlink ref="B10" display="http://maplestory.nexon.com/" r:id="rId74"/>
-    <hyperlink ref="C10" r:id="rId75"/>
-    <hyperlink ref="B11" display="http://maplestory2.nexon.com/" r:id="rId76"/>
-    <hyperlink ref="C11" r:id="rId77"/>
-    <hyperlink ref="B12" display="http://baram.nexon.com/" r:id="rId78"/>
-    <hyperlink ref="C12" r:id="rId79"/>
-    <hyperlink ref="B13" display="http://bf.nexon.com/" r:id="rId80"/>
-    <hyperlink ref="C13" r:id="rId81"/>
-    <hyperlink ref="B14" display="http://cyphers.nexon.com/" r:id="rId82"/>
-    <hyperlink ref="C14" r:id="rId83"/>
-    <hyperlink ref="B15" display="http://sa.nexon.com/" r:id="rId84"/>
-    <hyperlink ref="C15" r:id="rId85"/>
-    <hyperlink ref="B16" display="http://asgard.nexon.com/" r:id="rId86"/>
-    <hyperlink ref="C16" r:id="rId87"/>
-    <hyperlink ref="B17" display="http://astellia.nexon.com/" r:id="rId88"/>
-    <hyperlink ref="C17" r:id="rId89"/>
-    <hyperlink ref="B18" display="http://archeage.nexon.com/" r:id="rId90"/>
-    <hyperlink ref="C18" r:id="rId91"/>
-    <hyperlink ref="B19" display="http://lod.nexon.com/" r:id="rId92"/>
-    <hyperlink ref="C19" r:id="rId93"/>
-    <hyperlink ref="B20" display="http://elsword.nexon.com/" r:id="rId94"/>
-    <hyperlink ref="C20" display="D:\Nexon\ElSword" r:id="rId95"/>
-    <hyperlink ref="B21" display="http://icarus.nexon.com/" r:id="rId96"/>
-    <hyperlink ref="C21" r:id="rId97"/>
-    <hyperlink ref="B22" display="http://elancia.nexon.com/" r:id="rId98"/>
-    <hyperlink ref="C22" r:id="rId99"/>
-    <hyperlink ref="B23" display="http://sky.nexon.com/" r:id="rId100"/>
-    <hyperlink ref="C23" r:id="rId101"/>
-    <hyperlink ref="B24" display="http://csonline.nexon.com/" r:id="rId102"/>
-    <hyperlink ref="C24" r:id="rId103"/>
-    <hyperlink ref="B25" display="http://kart.nexon.com/" r:id="rId104"/>
-    <hyperlink ref="C25" r:id="rId105"/>
-    <hyperlink ref="B26" display="http://ca.nexon.com/" r:id="rId106"/>
-    <hyperlink ref="C26" r:id="rId107"/>
-    <hyperlink ref="B27" display="http://closers.nexon.com/" r:id="rId108"/>
-    <hyperlink ref="C27" r:id="rId109"/>
-    <hyperlink ref="B28" display="http://tera.nexon.com/" r:id="rId110"/>
-    <hyperlink ref="B29" display="http://tr.sgp.nexon.com/" r:id="rId111"/>
-    <hyperlink ref="C29" r:id="rId112"/>
-    <hyperlink ref="B30" display="http://tales.nexon.com/" r:id="rId113"/>
-    <hyperlink ref="C30" r:id="rId114"/>
-    <hyperlink ref="B31" display="http://tos.nexon.com/" r:id="rId115"/>
-    <hyperlink ref="C31" r:id="rId116"/>
-    <hyperlink ref="B32" display="http://ff14.nexon.com/" r:id="rId117"/>
-    <hyperlink ref="C32" r:id="rId118"/>
-    <hyperlink ref="B33" display="https://fs2.nexon.com/" r:id="rId119"/>
-    <hyperlink ref="C33" r:id="rId120"/>
-    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId61"/>
-    <hyperlink ref="C3" r:id="rId62"/>
-    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId63"/>
-    <hyperlink ref="C4" r:id="rId64"/>
-    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId65"/>
-    <hyperlink ref="C5" r:id="rId66"/>
-    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId67"/>
-    <hyperlink ref="C6" r:id="rId68"/>
-    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId69"/>
-    <hyperlink ref="C7" r:id="rId70"/>
-    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId71"/>
-    <hyperlink ref="C8" r:id="rId72"/>
-    <hyperlink ref="B9" display="http://heroes.nexon.com/" r:id="rId73"/>
-    <hyperlink ref="B10" display="http://maplestory.nexon.com/" r:id="rId74"/>
-    <hyperlink ref="C10" r:id="rId75"/>
-    <hyperlink ref="B11" display="http://maplestory2.nexon.com/" r:id="rId76"/>
-    <hyperlink ref="C11" r:id="rId77"/>
-    <hyperlink ref="B12" display="http://baram.nexon.com/" r:id="rId78"/>
-    <hyperlink ref="C12" r:id="rId79"/>
-    <hyperlink ref="B13" display="http://bf.nexon.com/" r:id="rId80"/>
-    <hyperlink ref="C13" r:id="rId81"/>
-    <hyperlink ref="B14" display="http://cyphers.nexon.com/" r:id="rId82"/>
-    <hyperlink ref="C14" r:id="rId83"/>
-    <hyperlink ref="B15" display="http://sa.nexon.com/" r:id="rId84"/>
-    <hyperlink ref="C15" r:id="rId85"/>
-    <hyperlink ref="B16" display="http://asgard.nexon.com/" r:id="rId86"/>
-    <hyperlink ref="C16" r:id="rId87"/>
-    <hyperlink ref="B17" display="http://astellia.nexon.com/" r:id="rId88"/>
-    <hyperlink ref="C17" r:id="rId89"/>
-    <hyperlink ref="B18" display="http://archeage.nexon.com/" r:id="rId90"/>
-    <hyperlink ref="C18" r:id="rId91"/>
-    <hyperlink ref="B19" display="http://lod.nexon.com/" r:id="rId92"/>
-    <hyperlink ref="C19" r:id="rId93"/>
-    <hyperlink ref="B20" display="http://elsword.nexon.com/" r:id="rId94"/>
-    <hyperlink ref="C20" display="D:\Nexon\ElSword" r:id="rId95"/>
-    <hyperlink ref="B21" display="http://icarus.nexon.com/" r:id="rId96"/>
-    <hyperlink ref="C21" r:id="rId97"/>
-    <hyperlink ref="B22" display="http://elancia.nexon.com/" r:id="rId98"/>
-    <hyperlink ref="C22" r:id="rId99"/>
-    <hyperlink ref="B23" display="http://sky.nexon.com/" r:id="rId100"/>
-    <hyperlink ref="C23" r:id="rId101"/>
-    <hyperlink ref="B24" display="http://csonline.nexon.com/" r:id="rId102"/>
-    <hyperlink ref="C24" r:id="rId103"/>
-    <hyperlink ref="B25" display="http://kart.nexon.com/" r:id="rId104"/>
-    <hyperlink ref="C25" r:id="rId105"/>
-    <hyperlink ref="B26" display="http://ca.nexon.com/" r:id="rId106"/>
-    <hyperlink ref="C26" r:id="rId107"/>
-    <hyperlink ref="B27" display="http://closers.nexon.com/" r:id="rId108"/>
-    <hyperlink ref="C27" r:id="rId109"/>
-    <hyperlink ref="B28" display="http://tera.nexon.com/" r:id="rId110"/>
-    <hyperlink ref="B29" display="http://tr.sgp.nexon.com/" r:id="rId111"/>
-    <hyperlink ref="C29" r:id="rId112"/>
-    <hyperlink ref="B30" display="http://tales.nexon.com/" r:id="rId113"/>
-    <hyperlink ref="C30" r:id="rId114"/>
-    <hyperlink ref="B31" display="http://tos.nexon.com/" r:id="rId115"/>
-    <hyperlink ref="C31" r:id="rId116"/>
-    <hyperlink ref="B32" display="http://ff14.nexon.com/" r:id="rId117"/>
-    <hyperlink ref="C32" r:id="rId118"/>
-    <hyperlink ref="B33" display="https://fs2.nexon.com/" r:id="rId119"/>
-    <hyperlink ref="C33" r:id="rId120"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
+    <hyperlink ref="B3" display="http://fifaonline4.nexon.com/" r:id="rId301"/>
+    <hyperlink ref="B4" display="http://df.nexon.com/" r:id="rId302"/>
+    <hyperlink ref="B5" display="http://dn.nexon.com/" r:id="rId303"/>
+    <hyperlink ref="B6" display="http://lostsaga.nexon.com/" r:id="rId304"/>
+    <hyperlink ref="B7" display="http://mabinogi.nexon.com/" r:id="rId305"/>
+    <hyperlink ref="B8" display="http://heroes.nexon.com/" r:id="rId306"/>
+    <hyperlink ref="B9" display="http://maplestory.nexon.com/" r:id="rId307"/>
+    <hyperlink ref="B10" display="http://maplestory2.nexon.com/" r:id="rId308"/>
+    <hyperlink ref="B11" display="http://baram.nexon.com/" r:id="rId309"/>
+    <hyperlink ref="B12" display="http://bf.nexon.com/" r:id="rId310"/>
+    <hyperlink ref="B13" display="http://cyphers.nexon.com/" r:id="rId311"/>
+    <hyperlink ref="B14" display="http://sa.nexon.com/" r:id="rId312"/>
+    <hyperlink ref="B15" display="http://asgard.nexon.com/" r:id="rId313"/>
+    <hyperlink ref="B16" display="http://astellia.nexon.com/" r:id="rId314"/>
+    <hyperlink ref="B17" display="http://archeage.nexon.com/" r:id="rId315"/>
+    <hyperlink ref="B18" display="http://lod.nexon.com/" r:id="rId316"/>
+    <hyperlink ref="B19" display="http://elsword.nexon.com/" r:id="rId317"/>
+    <hyperlink ref="B20" display="http://icarus.nexon.com/" r:id="rId318"/>
+    <hyperlink ref="B21" display="http://elancia.nexon.com/" r:id="rId319"/>
+    <hyperlink ref="B22" display="http://sky.nexon.com/" r:id="rId320"/>
+    <hyperlink ref="B23" display="http://csonline.nexon.com/" r:id="rId321"/>
+    <hyperlink ref="B24" display="http://kart.nexon.com/" r:id="rId322"/>
+    <hyperlink ref="B25" display="http://ca.nexon.com/" r:id="rId323"/>
+    <hyperlink ref="B26" display="http://closers.nexon.com/" r:id="rId324"/>
+    <hyperlink ref="B27" display="http://tera.nexon.com/" r:id="rId325"/>
+    <hyperlink ref="B28" display="http://tr.sgp.nexon.com/" r:id="rId326"/>
+    <hyperlink ref="B29" display="http://tales.nexon.com/" r:id="rId327"/>
+    <hyperlink ref="B30" display="http://tos.nexon.com/" r:id="rId328"/>
+    <hyperlink ref="B31" display="http://ff14.nexon.com/" r:id="rId329"/>
+    <hyperlink ref="B32" display="https://fs2.nexon.com/" r:id="rId330"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1385,7 +1494,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5">
-        <f>게임목록!B9</f>
+        <f>게임목록!#REF!</f>
         <v/>
       </c>
       <c r="C9" s="5" t="n">
@@ -1414,7 +1523,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5">
-        <f>게임목록!B10</f>
+        <f>게임목록!B9</f>
         <v/>
       </c>
       <c r="C10" s="5" t="n">
@@ -1443,7 +1552,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5">
-        <f>게임목록!B11</f>
+        <f>게임목록!B10</f>
         <v/>
       </c>
       <c r="C11" s="5" t="n">
@@ -1472,7 +1581,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5">
-        <f>게임목록!B12</f>
+        <f>게임목록!B11</f>
         <v/>
       </c>
       <c r="C12" s="5" t="n">
@@ -1501,7 +1610,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5">
-        <f>게임목록!B13</f>
+        <f>게임목록!B12</f>
         <v/>
       </c>
       <c r="C13" s="5" t="n">
@@ -1530,7 +1639,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5">
-        <f>게임목록!B14</f>
+        <f>게임목록!B13</f>
         <v/>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -1561,7 +1670,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5">
-        <f>게임목록!B15</f>
+        <f>게임목록!B14</f>
         <v/>
       </c>
       <c r="C15" s="5" t="n">
@@ -1590,7 +1699,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5">
-        <f>게임목록!B16</f>
+        <f>게임목록!B15</f>
         <v/>
       </c>
       <c r="C16" s="5" t="n">
@@ -1619,7 +1728,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5">
-        <f>게임목록!B17</f>
+        <f>게임목록!B16</f>
         <v/>
       </c>
       <c r="C17" s="5" t="n">
@@ -1648,7 +1757,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5">
-        <f>게임목록!B18</f>
+        <f>게임목록!B17</f>
         <v/>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -1679,7 +1788,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5">
-        <f>게임목록!B19</f>
+        <f>게임목록!B18</f>
         <v/>
       </c>
       <c r="C19" s="5" t="n">
@@ -1708,7 +1817,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5">
-        <f>게임목록!B20</f>
+        <f>게임목록!B19</f>
         <v/>
       </c>
       <c r="C20" s="5" t="n">
@@ -1737,7 +1846,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5">
-        <f>게임목록!B21</f>
+        <f>게임목록!B20</f>
         <v/>
       </c>
       <c r="C21" s="5" t="inlineStr">
@@ -1768,7 +1877,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5">
-        <f>게임목록!B22</f>
+        <f>게임목록!B21</f>
         <v/>
       </c>
       <c r="C22" s="5" t="n">
@@ -1797,7 +1906,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5">
-        <f>게임목록!B23</f>
+        <f>게임목록!B22</f>
         <v/>
       </c>
       <c r="C23" s="5" t="n">
@@ -1826,7 +1935,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5">
-        <f>게임목록!B24</f>
+        <f>게임목록!B23</f>
         <v/>
       </c>
       <c r="C24" s="5" t="n">
@@ -1855,7 +1964,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5">
-        <f>게임목록!B25</f>
+        <f>게임목록!B24</f>
         <v/>
       </c>
       <c r="C25" s="5" t="n">
@@ -1884,7 +1993,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5">
-        <f>게임목록!B26</f>
+        <f>게임목록!B25</f>
         <v/>
       </c>
       <c r="C26" s="5" t="n">
@@ -1913,7 +2022,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5">
-        <f>게임목록!B27</f>
+        <f>게임목록!B26</f>
         <v/>
       </c>
       <c r="C27" s="5" t="n">
@@ -1942,7 +2051,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5">
-        <f>게임목록!B28</f>
+        <f>게임목록!B27</f>
         <v/>
       </c>
       <c r="C28" s="5" t="n">
@@ -1971,7 +2080,7 @@
     </row>
     <row r="29">
       <c r="B29" s="5">
-        <f>게임목록!B29</f>
+        <f>게임목록!B28</f>
         <v/>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -2002,7 +2111,7 @@
     </row>
     <row r="30">
       <c r="B30" s="5">
-        <f>게임목록!B30</f>
+        <f>게임목록!B29</f>
         <v/>
       </c>
       <c r="C30" s="5" t="n">
@@ -2031,7 +2140,7 @@
     </row>
     <row r="31">
       <c r="B31" s="5">
-        <f>게임목록!B31</f>
+        <f>게임목록!B30</f>
         <v/>
       </c>
       <c r="C31" s="5" t="n">
@@ -2060,7 +2169,7 @@
     </row>
     <row r="32">
       <c r="B32" s="5">
-        <f>게임목록!B32</f>
+        <f>게임목록!B31</f>
         <v/>
       </c>
       <c r="C32" s="5" t="inlineStr">
@@ -2091,7 +2200,7 @@
     </row>
     <row r="33">
       <c r="B33" s="5">
-        <f>게임목록!B33</f>
+        <f>게임목록!B32</f>
         <v/>
       </c>
       <c r="C33" s="5" t="inlineStr">
